--- a/3B6_lab/3B6 data.xlsx
+++ b/3B6_lab/3B6 data.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yongqingjiang/Documents/Cambridge_Engineering_Coursework/3B6_lab/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4FE53ED-9059-8C42-89EA-267E165DEEDD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC4E1D35-D20B-C04B-B8E8-0A9369D13DFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="660" windowWidth="29400" windowHeight="18460" xr2:uid="{3FF7786E-42CA-7741-AAEE-85A353A7F290}"/>
+    <workbookView xWindow="0" yWindow="660" windowWidth="29400" windowHeight="17180" xr2:uid="{3FF7786E-42CA-7741-AAEE-85A353A7F290}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>Voltage Probe Reading (V)</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -63,6 +63,10 @@
   </si>
   <si>
     <t>TIR resistor (ohm)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Actual Current (mA)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -185,10 +189,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -236,6 +240,2373 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN"/>
+              <a:t>Voltage-Current plot</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Actual Current (mA)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$C$2:$C$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="25"/>
+                <c:pt idx="0">
+                  <c:v>93.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>90.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>88.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>85.499999999999986</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>82.499999999999986</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>78.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>76.5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>73.5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>70.5</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>68.5</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>65.5</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>59.5</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>56.499999999999993</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>51.500000000000007</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>27.000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>14.000000000000002</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$A$2:$A$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="25"/>
+                <c:pt idx="0">
+                  <c:v>3.34</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.22</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.18</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.06</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.02</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.89</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.81</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.77</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.69</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.61</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2.5299999999999998</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2.4500000000000002</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2.33</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2.25</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2.17</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2.09</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.93</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.89</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1.81</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1.65</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1.61</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1.29</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1.05</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.72</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-78C1-D74A-A612-06262DFBDDBE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="958123968"/>
+        <c:axId val="958121280"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="958123968"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN"/>
+                  <a:t>Current (mA)</a:t>
+                </a:r>
+                <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-CN"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="958121280"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="958121280"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN"/>
+                  <a:t>Voltage (V)</a:t>
+                </a:r>
+                <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-CN"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="958123968"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN"/>
+              <a:t>Intensity-Current plot</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Photodiode Probe Reading (mV)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="38100" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$C$2:$C$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="25"/>
+                <c:pt idx="0">
+                  <c:v>93.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>90.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>88.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>85.499999999999986</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>82.499999999999986</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>78.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>76.5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>73.5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>70.5</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>68.5</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>65.5</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>59.5</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>56.499999999999993</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>51.500000000000007</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>27.000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>14.000000000000002</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$D$2:$D$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="25"/>
+                <c:pt idx="0">
+                  <c:v>470</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>430</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>390</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>326</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>261</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>201</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>149</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>60</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-9C24-BD44-AE80-96016331F723}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1113141504"/>
+        <c:axId val="1091127040"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1113141504"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN"/>
+                  <a:t>Current</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN" baseline="0"/>
+                  <a:t> (mA)</a:t>
+                </a:r>
+                <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-CN"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1091127040"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1091127040"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN"/>
+                  <a:t>Photodiode</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN" baseline="0"/>
+                  <a:t> Reading (mV)</a:t>
+                </a:r>
+                <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-CN"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1113141504"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>630505</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>134417</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>291089</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>45405</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="图表 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D3F9F57B-6370-C728-F9AD-3E6DE43F85F7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>652982</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>22029</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>313566</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>135317</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="图表 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3CEC8747-6EAB-7522-F4B3-082C6A3010E9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -555,457 +2926,561 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56A6E31C-01A4-D647-9A0F-CF302FE0FF01}">
-  <dimension ref="A1:H26"/>
+  <dimension ref="A1:I26"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView tabSelected="1" zoomScale="113" workbookViewId="0">
+      <selection activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="27.5" style="1" customWidth="1"/>
-    <col min="2" max="2" width="26.6640625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="30.33203125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="10.83203125" style="1"/>
-    <col min="5" max="5" width="19" style="1" customWidth="1"/>
-    <col min="6" max="6" width="10.83203125" style="1"/>
-    <col min="7" max="7" width="13.1640625" style="1" customWidth="1"/>
-    <col min="8" max="16384" width="10.83203125" style="1"/>
+    <col min="2" max="3" width="26.6640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="30.33203125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="10.83203125" style="1"/>
+    <col min="6" max="6" width="19" style="1" customWidth="1"/>
+    <col min="7" max="7" width="10.83203125" style="1"/>
+    <col min="8" max="8" width="13.1640625" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="C1" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2"/>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="2"/>
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="3">
+      <c r="G1" s="3">
         <v>93.5</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="H1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="3">
-        <f>F1*F2/1000</f>
+      <c r="I1" s="3">
+        <f>G1*G2/1000</f>
         <v>1.87</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:9">
       <c r="A2" s="5">
         <v>3.34</v>
       </c>
       <c r="B2" s="8">
         <v>1.87</v>
       </c>
-      <c r="C2" s="11">
+      <c r="C2" s="8">
+        <f>B2/$G$2*1000</f>
+        <v>93.5</v>
+      </c>
+      <c r="D2" s="11">
         <v>470</v>
       </c>
-      <c r="D2" s="2"/>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="2"/>
+      <c r="F2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="3">
+      <c r="G2" s="3">
         <v>20</v>
       </c>
-      <c r="G2" s="2"/>
       <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:9">
       <c r="A3" s="5">
         <v>3.22</v>
       </c>
       <c r="B3" s="8">
         <v>1.81</v>
       </c>
-      <c r="C3" s="11">
+      <c r="C3" s="8">
+        <f t="shared" ref="C3:C26" si="0">B3/$G$2*1000</f>
+        <v>90.5</v>
+      </c>
+      <c r="D3" s="11">
         <v>430</v>
       </c>
-      <c r="D3" s="2"/>
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
       <c r="G3" s="2"/>
       <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:9">
       <c r="A4" s="5">
         <v>3.18</v>
       </c>
       <c r="B4" s="8">
         <v>1.77</v>
       </c>
-      <c r="C4" s="11">
+      <c r="C4" s="8">
+        <f t="shared" si="0"/>
+        <v>88.5</v>
+      </c>
+      <c r="D4" s="11">
         <v>390</v>
       </c>
-      <c r="D4" s="2"/>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
       <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:9">
       <c r="A5" s="5">
         <v>3.1</v>
       </c>
       <c r="B5" s="8">
         <v>1.71</v>
       </c>
-      <c r="C5" s="11">
+      <c r="C5" s="8">
+        <f t="shared" si="0"/>
+        <v>85.499999999999986</v>
+      </c>
+      <c r="D5" s="11">
         <v>326</v>
       </c>
-      <c r="D5" s="2"/>
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
       <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:9">
       <c r="A6" s="5">
         <v>3.06</v>
       </c>
       <c r="B6" s="8">
         <v>1.65</v>
       </c>
-      <c r="C6" s="11">
+      <c r="C6" s="8">
+        <f t="shared" si="0"/>
+        <v>82.499999999999986</v>
+      </c>
+      <c r="D6" s="11">
         <v>261</v>
       </c>
-      <c r="D6" s="2"/>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
       <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:9">
       <c r="A7" s="5">
         <v>3.02</v>
       </c>
       <c r="B7" s="8">
         <v>1.57</v>
       </c>
-      <c r="C7" s="11">
+      <c r="C7" s="8">
+        <f t="shared" si="0"/>
+        <v>78.5</v>
+      </c>
+      <c r="D7" s="11">
         <v>201</v>
       </c>
-      <c r="D7" s="2"/>
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:9">
       <c r="A8" s="5">
         <v>2.89</v>
       </c>
       <c r="B8" s="8">
         <v>1.53</v>
       </c>
-      <c r="C8" s="11">
+      <c r="C8" s="8">
+        <f t="shared" si="0"/>
+        <v>76.5</v>
+      </c>
+      <c r="D8" s="11">
         <v>149</v>
       </c>
-      <c r="D8" s="2"/>
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
       <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:9">
       <c r="A9" s="5">
         <v>2.81</v>
       </c>
       <c r="B9" s="8">
         <v>1.47</v>
       </c>
-      <c r="C9" s="11">
+      <c r="C9" s="8">
+        <f t="shared" si="0"/>
+        <v>73.5</v>
+      </c>
+      <c r="D9" s="11">
         <v>84</v>
       </c>
-      <c r="D9" s="2"/>
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:9">
       <c r="A10" s="5">
         <v>2.77</v>
       </c>
       <c r="B10" s="8">
         <v>1.41</v>
       </c>
-      <c r="C10" s="11">
+      <c r="C10" s="8">
+        <f t="shared" si="0"/>
+        <v>70.5</v>
+      </c>
+      <c r="D10" s="11">
         <v>76</v>
       </c>
-      <c r="D10" s="2" t="s">
+      <c r="E10" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E10" s="2"/>
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:9">
       <c r="A11" s="5">
         <v>2.69</v>
       </c>
       <c r="B11" s="8">
         <v>1.37</v>
       </c>
-      <c r="C11" s="11">
+      <c r="C11" s="8">
+        <f t="shared" si="0"/>
+        <v>68.5</v>
+      </c>
+      <c r="D11" s="11">
         <v>72</v>
       </c>
-      <c r="D11" s="2"/>
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
+      <c r="I11" s="2"/>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:9">
       <c r="A12" s="5">
         <v>2.61</v>
       </c>
       <c r="B12" s="8">
         <v>1.31</v>
       </c>
-      <c r="C12" s="11">
+      <c r="C12" s="8">
+        <f t="shared" si="0"/>
+        <v>65.5</v>
+      </c>
+      <c r="D12" s="11">
         <v>80</v>
       </c>
-      <c r="D12" s="2"/>
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
       <c r="H12" s="2"/>
+      <c r="I12" s="2"/>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:9">
       <c r="A13" s="5">
         <v>2.5299999999999998</v>
       </c>
       <c r="B13" s="8">
         <v>1.19</v>
       </c>
-      <c r="C13" s="11">
+      <c r="C13" s="8">
+        <f t="shared" si="0"/>
+        <v>59.5</v>
+      </c>
+      <c r="D13" s="11">
         <v>76</v>
       </c>
-      <c r="D13" s="2"/>
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
       <c r="H13" s="2"/>
+      <c r="I13" s="2"/>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:9">
       <c r="A14" s="5">
         <v>2.4500000000000002</v>
       </c>
       <c r="B14" s="8">
         <v>1.1299999999999999</v>
       </c>
-      <c r="C14" s="11">
+      <c r="C14" s="8">
+        <f t="shared" si="0"/>
+        <v>56.499999999999993</v>
+      </c>
+      <c r="D14" s="11">
         <v>96</v>
       </c>
-      <c r="D14" s="2"/>
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
       <c r="H14" s="2"/>
+      <c r="I14" s="2"/>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" spans="1:9">
       <c r="A15" s="5">
         <v>2.33</v>
       </c>
       <c r="B15" s="8">
         <v>1.03</v>
       </c>
-      <c r="C15" s="11">
+      <c r="C15" s="8">
+        <f t="shared" si="0"/>
+        <v>51.500000000000007</v>
+      </c>
+      <c r="D15" s="11">
         <v>84</v>
       </c>
-      <c r="D15" s="2"/>
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
       <c r="H15" s="2"/>
+      <c r="I15" s="2"/>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="1:9">
       <c r="A16" s="5">
         <v>2.25</v>
       </c>
       <c r="B16" s="8">
         <v>0.94</v>
       </c>
-      <c r="C16" s="11">
+      <c r="C16" s="8">
+        <f t="shared" si="0"/>
+        <v>47</v>
+      </c>
+      <c r="D16" s="11">
         <v>88</v>
       </c>
-      <c r="D16" s="2"/>
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
       <c r="G16" s="2"/>
       <c r="H16" s="2"/>
+      <c r="I16" s="2"/>
     </row>
-    <row r="17" spans="1:8">
+    <row r="17" spans="1:9">
       <c r="A17" s="5">
         <v>2.17</v>
       </c>
       <c r="B17" s="8">
         <v>0.88</v>
       </c>
-      <c r="C17" s="11">
+      <c r="C17" s="8">
+        <f t="shared" si="0"/>
+        <v>44</v>
+      </c>
+      <c r="D17" s="11">
         <v>84</v>
       </c>
-      <c r="D17" s="2"/>
       <c r="E17" s="2"/>
       <c r="F17" s="2"/>
       <c r="G17" s="2"/>
       <c r="H17" s="2"/>
+      <c r="I17" s="2"/>
     </row>
-    <row r="18" spans="1:8">
+    <row r="18" spans="1:9">
       <c r="A18" s="5">
         <v>2.09</v>
       </c>
       <c r="B18" s="8">
         <v>0.78</v>
       </c>
-      <c r="C18" s="11">
+      <c r="C18" s="8">
+        <f t="shared" si="0"/>
+        <v>39</v>
+      </c>
+      <c r="D18" s="11">
         <v>76</v>
       </c>
-      <c r="D18" s="2"/>
       <c r="E18" s="2"/>
       <c r="F18" s="2"/>
       <c r="G18" s="2"/>
       <c r="H18" s="2"/>
+      <c r="I18" s="2"/>
     </row>
-    <row r="19" spans="1:8">
+    <row r="19" spans="1:9">
       <c r="A19" s="5">
         <v>1.93</v>
       </c>
       <c r="B19" s="8">
         <v>0.62</v>
       </c>
-      <c r="C19" s="11">
+      <c r="C19" s="8">
+        <f t="shared" si="0"/>
+        <v>31</v>
+      </c>
+      <c r="D19" s="11">
         <v>88</v>
       </c>
-      <c r="D19" s="2"/>
       <c r="E19" s="2"/>
       <c r="F19" s="2"/>
       <c r="G19" s="2"/>
       <c r="H19" s="2"/>
+      <c r="I19" s="2"/>
     </row>
-    <row r="20" spans="1:8">
+    <row r="20" spans="1:9">
       <c r="A20" s="5">
         <v>1.89</v>
       </c>
       <c r="B20" s="8">
         <v>0.54</v>
       </c>
-      <c r="C20" s="11">
+      <c r="C20" s="8">
+        <f t="shared" si="0"/>
+        <v>27.000000000000004</v>
+      </c>
+      <c r="D20" s="11">
         <v>72</v>
       </c>
-      <c r="D20" s="2"/>
       <c r="E20" s="2"/>
       <c r="F20" s="2"/>
       <c r="G20" s="2"/>
       <c r="H20" s="2"/>
+      <c r="I20" s="2"/>
     </row>
-    <row r="21" spans="1:8">
+    <row r="21" spans="1:9">
       <c r="A21" s="5">
         <v>1.81</v>
       </c>
       <c r="B21" s="8">
         <v>0.46</v>
       </c>
-      <c r="C21" s="11">
+      <c r="C21" s="8">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+      <c r="D21" s="11">
         <v>72</v>
       </c>
-      <c r="D21" s="2"/>
       <c r="E21" s="2"/>
       <c r="F21" s="2"/>
       <c r="G21" s="2"/>
       <c r="H21" s="2"/>
+      <c r="I21" s="2"/>
     </row>
-    <row r="22" spans="1:8">
+    <row r="22" spans="1:9">
       <c r="A22" s="5">
         <v>1.65</v>
       </c>
       <c r="B22" s="8">
         <v>0.38</v>
       </c>
-      <c r="C22" s="11">
+      <c r="C22" s="8">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="D22" s="11">
         <v>68</v>
       </c>
-      <c r="D22" s="2"/>
       <c r="E22" s="2"/>
       <c r="F22" s="2"/>
       <c r="G22" s="2"/>
       <c r="H22" s="2"/>
+      <c r="I22" s="2"/>
     </row>
-    <row r="23" spans="1:8">
+    <row r="23" spans="1:9">
       <c r="A23" s="5">
         <v>1.61</v>
       </c>
       <c r="B23" s="8">
         <v>0.28000000000000003</v>
       </c>
-      <c r="C23" s="11">
+      <c r="C23" s="8">
+        <f t="shared" si="0"/>
+        <v>14.000000000000002</v>
+      </c>
+      <c r="D23" s="11">
         <v>60</v>
       </c>
-      <c r="D23" s="2"/>
       <c r="E23" s="2"/>
       <c r="F23" s="2"/>
       <c r="G23" s="2"/>
       <c r="H23" s="2"/>
+      <c r="I23" s="2"/>
     </row>
-    <row r="24" spans="1:8">
+    <row r="24" spans="1:9">
       <c r="A24" s="5">
         <v>1.29</v>
       </c>
       <c r="B24" s="8">
         <v>0.18</v>
       </c>
-      <c r="C24" s="11">
+      <c r="C24" s="8">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="D24" s="11">
         <v>68</v>
       </c>
-      <c r="D24" s="2"/>
       <c r="E24" s="2"/>
       <c r="F24" s="2"/>
       <c r="G24" s="2"/>
       <c r="H24" s="2"/>
+      <c r="I24" s="2"/>
     </row>
-    <row r="25" spans="1:8">
+    <row r="25" spans="1:9">
       <c r="A25" s="5">
         <v>1.05</v>
       </c>
       <c r="B25" s="8">
         <v>0.12</v>
       </c>
-      <c r="C25" s="11">
+      <c r="C25" s="8">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="D25" s="11">
         <v>64</v>
       </c>
-      <c r="D25" s="2"/>
       <c r="E25" s="2"/>
       <c r="F25" s="2"/>
       <c r="G25" s="2"/>
       <c r="H25" s="2"/>
+      <c r="I25" s="2"/>
     </row>
-    <row r="26" spans="1:8">
+    <row r="26" spans="1:9">
       <c r="A26" s="6">
         <v>0.72</v>
       </c>
       <c r="B26" s="9">
         <v>0.08</v>
       </c>
-      <c r="C26" s="12">
+      <c r="C26" s="9">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="D26" s="12">
         <v>60</v>
       </c>
-      <c r="D26" s="2"/>
       <c r="E26" s="2"/>
       <c r="F26" s="2"/>
       <c r="G26" s="2"/>
       <c r="H26" s="2"/>
+      <c r="I26" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/3B6_lab/3B6 data.xlsx
+++ b/3B6_lab/3B6 data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yongqingjiang/Documents/Cambridge_Engineering_Coursework/3B6_lab/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC4E1D35-D20B-C04B-B8E8-0A9369D13DFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CE49BA5-0386-F54A-B011-3C011D1443E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="660" windowWidth="29400" windowHeight="17180" xr2:uid="{3FF7786E-42CA-7741-AAEE-85A353A7F290}"/>
+    <workbookView xWindow="20" yWindow="680" windowWidth="29400" windowHeight="17180" xr2:uid="{3FF7786E-42CA-7741-AAEE-85A353A7F290}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -612,7 +612,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="zh-CN"/>
+              <a:endParaRPr lang="zh-CN" altLang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -730,7 +730,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="zh-CN"/>
+              <a:endParaRPr lang="zh-CN" altLang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -1201,7 +1201,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="zh-CN"/>
+              <a:endParaRPr lang="zh-CN" altLang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -1323,7 +1323,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="zh-CN"/>
+              <a:endParaRPr lang="zh-CN" altLang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>

--- a/3B6_lab/3B6 data.xlsx
+++ b/3B6_lab/3B6 data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10402"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24334"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yongqingjiang/Documents/Cambridge_Engineering_Coursework/3B6_lab/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Cambridge_Engineering\Part IIA\Cambridge_Engineering_Coursework\3B6_lab\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CE49BA5-0386-F54A-B011-3C011D1443E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05633789-7769-4EC0-8981-9F29AF253AA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20" yWindow="680" windowWidth="29400" windowHeight="17180" xr2:uid="{3FF7786E-42CA-7741-AAEE-85A353A7F290}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{3FF7786E-42CA-7741-AAEE-85A353A7F290}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -30,6 +30,9 @@
         <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
         <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
+    </ext>
+    <ext xmlns:xlwcv="http://schemas.microsoft.com/office/spreadsheetml/2024/workbookCompatibilityVersion" uri="{D14903EA-33C4-47F7-8F05-3474C54BE107}">
+      <xlwcv:version setVersion="1"/>
     </ext>
   </extLst>
 </workbook>
@@ -74,18 +77,18 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="等线"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -94,10 +97,14 @@
       <b/>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="等线"/>
-      <family val="4"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="6">
@@ -192,37 +199,37 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -307,7 +314,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="zh-CN"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -612,7 +619,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -650,7 +657,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="zh-CN"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="958121280"/>
@@ -730,7 +737,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -768,7 +775,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="zh-CN"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="958123968"/>
@@ -816,7 +823,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="zh-CN"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -892,7 +899,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="zh-CN"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -1201,7 +1208,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -1239,7 +1246,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="zh-CN"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1091127040"/>
@@ -1323,7 +1330,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -1361,7 +1368,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="zh-CN"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1113141504"/>
@@ -1409,7 +1416,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="zh-CN"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -2537,15 +2544,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>630505</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>134417</xdr:rowOff>
+      <xdr:colOff>807517</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>33268</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>291089</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>45405</xdr:rowOff>
+      <xdr:colOff>468101</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>101151</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2573,15 +2580,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>652982</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>22029</xdr:rowOff>
+      <xdr:colOff>813137</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>55745</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>313566</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>135317</xdr:rowOff>
+      <xdr:colOff>473721</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>168584</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2929,51 +2936,52 @@
   <dimension ref="A1:I26"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="113" workbookViewId="0">
-      <selection activeCell="K12" sqref="K12"/>
+      <selection activeCell="F30" sqref="F30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="27.5" style="1" customWidth="1"/>
-    <col min="2" max="3" width="26.6640625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="30.33203125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="10.83203125" style="1"/>
+    <col min="1" max="1" width="34.25" style="1" customWidth="1"/>
+    <col min="2" max="2" width="36" style="1" customWidth="1"/>
+    <col min="3" max="3" width="26.625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="33" style="1" customWidth="1"/>
+    <col min="5" max="5" width="10.875" style="1"/>
     <col min="6" max="6" width="19" style="1" customWidth="1"/>
-    <col min="7" max="7" width="10.83203125" style="1"/>
-    <col min="8" max="8" width="13.1640625" style="1" customWidth="1"/>
-    <col min="9" max="16384" width="10.83203125" style="1"/>
+    <col min="7" max="7" width="10.875" style="1"/>
+    <col min="8" max="8" width="13.125" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="10.875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:9" ht="15.75">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="D1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="2"/>
-      <c r="F1" s="3" t="s">
+      <c r="E1" s="5"/>
+      <c r="F1" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3">
+      <c r="G1" s="6">
         <v>93.5</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="3">
+      <c r="I1" s="6">
         <f>G1*G2/1000</f>
         <v>1.87</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
-      <c r="A2" s="5">
+    <row r="2" spans="1:9" ht="15.75">
+      <c r="A2" s="7">
         <v>3.34</v>
       </c>
       <c r="B2" s="8">
@@ -2983,21 +2991,21 @@
         <f>B2/$G$2*1000</f>
         <v>93.5</v>
       </c>
-      <c r="D2" s="11">
+      <c r="D2" s="9">
         <v>470</v>
       </c>
-      <c r="E2" s="2"/>
-      <c r="F2" s="3" t="s">
+      <c r="E2" s="5"/>
+      <c r="F2" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="3">
+      <c r="G2" s="6">
         <v>20</v>
       </c>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="5"/>
     </row>
-    <row r="3" spans="1:9">
-      <c r="A3" s="5">
+    <row r="3" spans="1:9" ht="15.75">
+      <c r="A3" s="7">
         <v>3.22</v>
       </c>
       <c r="B3" s="8">
@@ -3007,17 +3015,17 @@
         <f t="shared" ref="C3:C26" si="0">B3/$G$2*1000</f>
         <v>90.5</v>
       </c>
-      <c r="D3" s="11">
+      <c r="D3" s="9">
         <v>430</v>
       </c>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="5"/>
     </row>
-    <row r="4" spans="1:9">
-      <c r="A4" s="5">
+    <row r="4" spans="1:9" ht="15.75">
+      <c r="A4" s="7">
         <v>3.18</v>
       </c>
       <c r="B4" s="8">
@@ -3027,17 +3035,17 @@
         <f t="shared" si="0"/>
         <v>88.5</v>
       </c>
-      <c r="D4" s="11">
+      <c r="D4" s="9">
         <v>390</v>
       </c>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="5"/>
+      <c r="I4" s="5"/>
     </row>
-    <row r="5" spans="1:9">
-      <c r="A5" s="5">
+    <row r="5" spans="1:9" ht="15.75">
+      <c r="A5" s="7">
         <v>3.1</v>
       </c>
       <c r="B5" s="8">
@@ -3047,17 +3055,17 @@
         <f t="shared" si="0"/>
         <v>85.499999999999986</v>
       </c>
-      <c r="D5" s="11">
+      <c r="D5" s="9">
         <v>326</v>
       </c>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
-      <c r="I5" s="2"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="5"/>
+      <c r="I5" s="5"/>
     </row>
-    <row r="6" spans="1:9">
-      <c r="A6" s="5">
+    <row r="6" spans="1:9" ht="15.75">
+      <c r="A6" s="7">
         <v>3.06</v>
       </c>
       <c r="B6" s="8">
@@ -3067,17 +3075,17 @@
         <f t="shared" si="0"/>
         <v>82.499999999999986</v>
       </c>
-      <c r="D6" s="11">
+      <c r="D6" s="9">
         <v>261</v>
       </c>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
-      <c r="I6" s="2"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="5"/>
+      <c r="I6" s="5"/>
     </row>
-    <row r="7" spans="1:9">
-      <c r="A7" s="5">
+    <row r="7" spans="1:9" ht="15.75">
+      <c r="A7" s="7">
         <v>3.02</v>
       </c>
       <c r="B7" s="8">
@@ -3087,17 +3095,17 @@
         <f t="shared" si="0"/>
         <v>78.5</v>
       </c>
-      <c r="D7" s="11">
+      <c r="D7" s="9">
         <v>201</v>
       </c>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
-      <c r="H7" s="2"/>
-      <c r="I7" s="2"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="5"/>
+      <c r="I7" s="5"/>
     </row>
-    <row r="8" spans="1:9">
-      <c r="A8" s="5">
+    <row r="8" spans="1:9" ht="15.75">
+      <c r="A8" s="7">
         <v>2.89</v>
       </c>
       <c r="B8" s="8">
@@ -3107,17 +3115,17 @@
         <f t="shared" si="0"/>
         <v>76.5</v>
       </c>
-      <c r="D8" s="11">
+      <c r="D8" s="9">
         <v>149</v>
       </c>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
-      <c r="I8" s="2"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="5"/>
+      <c r="I8" s="5"/>
     </row>
-    <row r="9" spans="1:9">
-      <c r="A9" s="5">
+    <row r="9" spans="1:9" ht="15.75">
+      <c r="A9" s="7">
         <v>2.81</v>
       </c>
       <c r="B9" s="8">
@@ -3127,17 +3135,17 @@
         <f t="shared" si="0"/>
         <v>73.5</v>
       </c>
-      <c r="D9" s="11">
+      <c r="D9" s="9">
         <v>84</v>
       </c>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
-      <c r="H9" s="2"/>
-      <c r="I9" s="2"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="5"/>
+      <c r="I9" s="5"/>
     </row>
-    <row r="10" spans="1:9">
-      <c r="A10" s="5">
+    <row r="10" spans="1:9" ht="15.75">
+      <c r="A10" s="7">
         <v>2.77</v>
       </c>
       <c r="B10" s="8">
@@ -3147,19 +3155,19 @@
         <f t="shared" si="0"/>
         <v>70.5</v>
       </c>
-      <c r="D10" s="11">
+      <c r="D10" s="9">
         <v>76</v>
       </c>
-      <c r="E10" s="2" t="s">
+      <c r="E10" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
-      <c r="H10" s="2"/>
-      <c r="I10" s="2"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="5"/>
+      <c r="H10" s="5"/>
+      <c r="I10" s="5"/>
     </row>
-    <row r="11" spans="1:9">
-      <c r="A11" s="5">
+    <row r="11" spans="1:9" ht="15.75">
+      <c r="A11" s="7">
         <v>2.69</v>
       </c>
       <c r="B11" s="8">
@@ -3169,17 +3177,17 @@
         <f t="shared" si="0"/>
         <v>68.5</v>
       </c>
-      <c r="D11" s="11">
+      <c r="D11" s="9">
         <v>72</v>
       </c>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2"/>
-      <c r="H11" s="2"/>
-      <c r="I11" s="2"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="5"/>
+      <c r="I11" s="5"/>
     </row>
-    <row r="12" spans="1:9">
-      <c r="A12" s="5">
+    <row r="12" spans="1:9" ht="15.75">
+      <c r="A12" s="7">
         <v>2.61</v>
       </c>
       <c r="B12" s="8">
@@ -3189,17 +3197,17 @@
         <f t="shared" si="0"/>
         <v>65.5</v>
       </c>
-      <c r="D12" s="11">
+      <c r="D12" s="9">
         <v>80</v>
       </c>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2"/>
-      <c r="H12" s="2"/>
-      <c r="I12" s="2"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="5"/>
+      <c r="H12" s="5"/>
+      <c r="I12" s="5"/>
     </row>
-    <row r="13" spans="1:9">
-      <c r="A13" s="5">
+    <row r="13" spans="1:9" ht="15.75">
+      <c r="A13" s="7">
         <v>2.5299999999999998</v>
       </c>
       <c r="B13" s="8">
@@ -3209,17 +3217,17 @@
         <f t="shared" si="0"/>
         <v>59.5</v>
       </c>
-      <c r="D13" s="11">
+      <c r="D13" s="9">
         <v>76</v>
       </c>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2"/>
-      <c r="H13" s="2"/>
-      <c r="I13" s="2"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="5"/>
+      <c r="H13" s="5"/>
+      <c r="I13" s="5"/>
     </row>
-    <row r="14" spans="1:9">
-      <c r="A14" s="5">
+    <row r="14" spans="1:9" ht="15.75">
+      <c r="A14" s="7">
         <v>2.4500000000000002</v>
       </c>
       <c r="B14" s="8">
@@ -3229,17 +3237,17 @@
         <f t="shared" si="0"/>
         <v>56.499999999999993</v>
       </c>
-      <c r="D14" s="11">
+      <c r="D14" s="9">
         <v>96</v>
       </c>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
-      <c r="G14" s="2"/>
-      <c r="H14" s="2"/>
-      <c r="I14" s="2"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="5"/>
+      <c r="H14" s="5"/>
+      <c r="I14" s="5"/>
     </row>
-    <row r="15" spans="1:9">
-      <c r="A15" s="5">
+    <row r="15" spans="1:9" ht="15.75">
+      <c r="A15" s="7">
         <v>2.33</v>
       </c>
       <c r="B15" s="8">
@@ -3249,17 +3257,17 @@
         <f t="shared" si="0"/>
         <v>51.500000000000007</v>
       </c>
-      <c r="D15" s="11">
+      <c r="D15" s="9">
         <v>84</v>
       </c>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
-      <c r="G15" s="2"/>
-      <c r="H15" s="2"/>
-      <c r="I15" s="2"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="5"/>
+      <c r="H15" s="5"/>
+      <c r="I15" s="5"/>
     </row>
-    <row r="16" spans="1:9">
-      <c r="A16" s="5">
+    <row r="16" spans="1:9" ht="15.75">
+      <c r="A16" s="7">
         <v>2.25</v>
       </c>
       <c r="B16" s="8">
@@ -3269,17 +3277,17 @@
         <f t="shared" si="0"/>
         <v>47</v>
       </c>
-      <c r="D16" s="11">
+      <c r="D16" s="9">
         <v>88</v>
       </c>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
-      <c r="G16" s="2"/>
-      <c r="H16" s="2"/>
-      <c r="I16" s="2"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="5"/>
+      <c r="G16" s="5"/>
+      <c r="H16" s="5"/>
+      <c r="I16" s="5"/>
     </row>
-    <row r="17" spans="1:9">
-      <c r="A17" s="5">
+    <row r="17" spans="1:9" ht="15.75">
+      <c r="A17" s="7">
         <v>2.17</v>
       </c>
       <c r="B17" s="8">
@@ -3289,17 +3297,17 @@
         <f t="shared" si="0"/>
         <v>44</v>
       </c>
-      <c r="D17" s="11">
+      <c r="D17" s="9">
         <v>84</v>
       </c>
-      <c r="E17" s="2"/>
-      <c r="F17" s="2"/>
-      <c r="G17" s="2"/>
-      <c r="H17" s="2"/>
-      <c r="I17" s="2"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="5"/>
+      <c r="G17" s="5"/>
+      <c r="H17" s="5"/>
+      <c r="I17" s="5"/>
     </row>
-    <row r="18" spans="1:9">
-      <c r="A18" s="5">
+    <row r="18" spans="1:9" ht="15.75">
+      <c r="A18" s="7">
         <v>2.09</v>
       </c>
       <c r="B18" s="8">
@@ -3309,17 +3317,17 @@
         <f t="shared" si="0"/>
         <v>39</v>
       </c>
-      <c r="D18" s="11">
+      <c r="D18" s="9">
         <v>76</v>
       </c>
-      <c r="E18" s="2"/>
-      <c r="F18" s="2"/>
-      <c r="G18" s="2"/>
-      <c r="H18" s="2"/>
-      <c r="I18" s="2"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="5"/>
+      <c r="G18" s="5"/>
+      <c r="H18" s="5"/>
+      <c r="I18" s="5"/>
     </row>
-    <row r="19" spans="1:9">
-      <c r="A19" s="5">
+    <row r="19" spans="1:9" ht="15.75">
+      <c r="A19" s="7">
         <v>1.93</v>
       </c>
       <c r="B19" s="8">
@@ -3329,17 +3337,17 @@
         <f t="shared" si="0"/>
         <v>31</v>
       </c>
-      <c r="D19" s="11">
+      <c r="D19" s="9">
         <v>88</v>
       </c>
-      <c r="E19" s="2"/>
-      <c r="F19" s="2"/>
-      <c r="G19" s="2"/>
-      <c r="H19" s="2"/>
-      <c r="I19" s="2"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="5"/>
+      <c r="G19" s="5"/>
+      <c r="H19" s="5"/>
+      <c r="I19" s="5"/>
     </row>
-    <row r="20" spans="1:9">
-      <c r="A20" s="5">
+    <row r="20" spans="1:9" ht="15.75">
+      <c r="A20" s="7">
         <v>1.89</v>
       </c>
       <c r="B20" s="8">
@@ -3349,17 +3357,17 @@
         <f t="shared" si="0"/>
         <v>27.000000000000004</v>
       </c>
-      <c r="D20" s="11">
+      <c r="D20" s="9">
         <v>72</v>
       </c>
-      <c r="E20" s="2"/>
-      <c r="F20" s="2"/>
-      <c r="G20" s="2"/>
-      <c r="H20" s="2"/>
-      <c r="I20" s="2"/>
+      <c r="E20" s="5"/>
+      <c r="F20" s="5"/>
+      <c r="G20" s="5"/>
+      <c r="H20" s="5"/>
+      <c r="I20" s="5"/>
     </row>
-    <row r="21" spans="1:9">
-      <c r="A21" s="5">
+    <row r="21" spans="1:9" ht="15.75">
+      <c r="A21" s="7">
         <v>1.81</v>
       </c>
       <c r="B21" s="8">
@@ -3369,17 +3377,17 @@
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
-      <c r="D21" s="11">
+      <c r="D21" s="9">
         <v>72</v>
       </c>
-      <c r="E21" s="2"/>
-      <c r="F21" s="2"/>
-      <c r="G21" s="2"/>
-      <c r="H21" s="2"/>
-      <c r="I21" s="2"/>
+      <c r="E21" s="5"/>
+      <c r="F21" s="5"/>
+      <c r="G21" s="5"/>
+      <c r="H21" s="5"/>
+      <c r="I21" s="5"/>
     </row>
-    <row r="22" spans="1:9">
-      <c r="A22" s="5">
+    <row r="22" spans="1:9" ht="15.75">
+      <c r="A22" s="7">
         <v>1.65</v>
       </c>
       <c r="B22" s="8">
@@ -3389,17 +3397,17 @@
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="D22" s="11">
+      <c r="D22" s="9">
         <v>68</v>
       </c>
-      <c r="E22" s="2"/>
-      <c r="F22" s="2"/>
-      <c r="G22" s="2"/>
-      <c r="H22" s="2"/>
-      <c r="I22" s="2"/>
+      <c r="E22" s="5"/>
+      <c r="F22" s="5"/>
+      <c r="G22" s="5"/>
+      <c r="H22" s="5"/>
+      <c r="I22" s="5"/>
     </row>
-    <row r="23" spans="1:9">
-      <c r="A23" s="5">
+    <row r="23" spans="1:9" ht="15.75">
+      <c r="A23" s="7">
         <v>1.61</v>
       </c>
       <c r="B23" s="8">
@@ -3409,17 +3417,17 @@
         <f t="shared" si="0"/>
         <v>14.000000000000002</v>
       </c>
-      <c r="D23" s="11">
+      <c r="D23" s="9">
         <v>60</v>
       </c>
-      <c r="E23" s="2"/>
-      <c r="F23" s="2"/>
-      <c r="G23" s="2"/>
-      <c r="H23" s="2"/>
-      <c r="I23" s="2"/>
+      <c r="E23" s="5"/>
+      <c r="F23" s="5"/>
+      <c r="G23" s="5"/>
+      <c r="H23" s="5"/>
+      <c r="I23" s="5"/>
     </row>
-    <row r="24" spans="1:9">
-      <c r="A24" s="5">
+    <row r="24" spans="1:9" ht="15.75">
+      <c r="A24" s="7">
         <v>1.29</v>
       </c>
       <c r="B24" s="8">
@@ -3429,17 +3437,17 @@
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="D24" s="11">
+      <c r="D24" s="9">
         <v>68</v>
       </c>
-      <c r="E24" s="2"/>
-      <c r="F24" s="2"/>
-      <c r="G24" s="2"/>
-      <c r="H24" s="2"/>
-      <c r="I24" s="2"/>
+      <c r="E24" s="5"/>
+      <c r="F24" s="5"/>
+      <c r="G24" s="5"/>
+      <c r="H24" s="5"/>
+      <c r="I24" s="5"/>
     </row>
-    <row r="25" spans="1:9">
-      <c r="A25" s="5">
+    <row r="25" spans="1:9" ht="15.75">
+      <c r="A25" s="7">
         <v>1.05</v>
       </c>
       <c r="B25" s="8">
@@ -3449,38 +3457,39 @@
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="D25" s="11">
+      <c r="D25" s="9">
         <v>64</v>
       </c>
-      <c r="E25" s="2"/>
-      <c r="F25" s="2"/>
-      <c r="G25" s="2"/>
-      <c r="H25" s="2"/>
-      <c r="I25" s="2"/>
+      <c r="E25" s="5"/>
+      <c r="F25" s="5"/>
+      <c r="G25" s="5"/>
+      <c r="H25" s="5"/>
+      <c r="I25" s="5"/>
     </row>
-    <row r="26" spans="1:9">
-      <c r="A26" s="6">
+    <row r="26" spans="1:9" ht="15.75">
+      <c r="A26" s="10">
         <v>0.72</v>
       </c>
-      <c r="B26" s="9">
+      <c r="B26" s="11">
         <v>0.08</v>
       </c>
-      <c r="C26" s="9">
+      <c r="C26" s="11">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="D26" s="12">
         <v>60</v>
       </c>
-      <c r="E26" s="2"/>
-      <c r="F26" s="2"/>
-      <c r="G26" s="2"/>
-      <c r="H26" s="2"/>
-      <c r="I26" s="2"/>
+      <c r="E26" s="5"/>
+      <c r="F26" s="5"/>
+      <c r="G26" s="5"/>
+      <c r="H26" s="5"/>
+      <c r="I26" s="5"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/3B6_lab/3B6 data.xlsx
+++ b/3B6_lab/3B6 data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Cambridge_Engineering\Part IIA\Cambridge_Engineering_Coursework\3B6_lab\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05633789-7769-4EC0-8981-9F29AF253AA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0E75218-A38A-4C20-99C1-BB8CEEE41919}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{3FF7786E-42CA-7741-AAEE-85A353A7F290}"/>
+    <workbookView xWindow="7680" yWindow="660" windowWidth="28800" windowHeight="15345" xr2:uid="{3FF7786E-42CA-7741-AAEE-85A353A7F290}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>

--- a/3B6_lab/3B6 data.xlsx
+++ b/3B6_lab/3B6 data.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Cambridge_Engineering\Part IIA\Cambridge_Engineering_Coursework\3B6_lab\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0E75218-A38A-4C20-99C1-BB8CEEE41919}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3B9D3C3-BDB3-458F-9B60-24154BB4BFCD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7680" yWindow="660" windowWidth="28800" windowHeight="15345" xr2:uid="{3FF7786E-42CA-7741-AAEE-85A353A7F290}"/>
+    <workbookView xWindow="7680" yWindow="660" windowWidth="28800" windowHeight="15345" activeTab="1" xr2:uid="{3FF7786E-42CA-7741-AAEE-85A353A7F290}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -27,8 +28,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
     <ext xmlns:xlwcv="http://schemas.microsoft.com/office/spreadsheetml/2024/workbookCompatibilityVersion" uri="{D14903EA-33C4-47F7-8F05-3474C54BE107}">
@@ -39,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>Voltage Probe Reading (V)</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -71,6 +70,18 @@
   <si>
     <t>Actual Current (mA)</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Current (mA)</t>
+  </si>
+  <si>
+    <t>center wavelength (um)</t>
+  </si>
+  <si>
+    <t>3dB width (um)</t>
+  </si>
+  <si>
+    <t>ripple width (nm)</t>
   </si>
 </sst>
 </file>
@@ -192,7 +203,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -230,6 +241,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2935,7 +2949,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56A6E31C-01A4-D647-9A0F-CF302FE0FF01}">
   <dimension ref="A1:I26"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="113" workbookViewId="0">
+    <sheetView topLeftCell="A4" zoomScale="113" workbookViewId="0">
       <selection activeCell="F30" sqref="F30"/>
     </sheetView>
   </sheetViews>
@@ -3492,4 +3506,68 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5231FCD-BD75-4555-8AEA-45BDA52510D1}">
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col min="1" max="1" width="16.5" customWidth="1"/>
+    <col min="2" max="2" width="23.375" customWidth="1"/>
+    <col min="3" max="3" width="16" customWidth="1"/>
+    <col min="4" max="4" width="17.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="15.75">
+      <c r="A1" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" s="13" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="15.75">
+      <c r="A2" s="13">
+        <v>17.63</v>
+      </c>
+      <c r="B2" s="13">
+        <v>1.5565</v>
+      </c>
+      <c r="C2" s="13">
+        <v>4.8999999999999998E-3</v>
+      </c>
+      <c r="D2" s="13">
+        <v>1.2050000000000001</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="15.75">
+      <c r="A3" s="13">
+        <v>13.02</v>
+      </c>
+      <c r="B3" s="13">
+        <v>1.5547</v>
+      </c>
+      <c r="C3" s="13">
+        <v>2.5399999999999999E-2</v>
+      </c>
+      <c r="D3" s="13">
+        <v>1.2050000000000001</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
+</worksheet>
 </file>
--- a/3B6_lab/3B6 data.xlsx
+++ b/3B6_lab/3B6 data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24334"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10402"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Cambridge_Engineering\Part IIA\Cambridge_Engineering_Coursework\3B6_lab\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yongqingjiang/Documents/Cambridge_Engineering_Coursework/3B6_lab/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3B9D3C3-BDB3-458F-9B60-24154BB4BFCD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C308996-F7CB-FE43-A6FD-58A45DF4B79B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7680" yWindow="660" windowWidth="28800" windowHeight="15345" activeTab="1" xr2:uid="{3FF7786E-42CA-7741-AAEE-85A353A7F290}"/>
+    <workbookView xWindow="600" yWindow="660" windowWidth="28800" windowHeight="15340" xr2:uid="{3FF7786E-42CA-7741-AAEE-85A353A7F290}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -92,14 +92,14 @@
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Aptos Narrow"/>
+      <name val="等线"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="Aptos Narrow"/>
+      <name val="等线"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -633,7 +633,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="zh-CN" altLang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -751,7 +751,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="zh-CN" altLang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -1222,7 +1222,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="zh-CN" altLang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -1344,7 +1344,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="zh-CN" altLang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -2949,24 +2949,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56A6E31C-01A4-D647-9A0F-CF302FE0FF01}">
   <dimension ref="A1:I26"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="113" workbookViewId="0">
-      <selection activeCell="F30" sqref="F30"/>
+    <sheetView tabSelected="1" zoomScale="113" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="14.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="34.25" style="1" customWidth="1"/>
+    <col min="1" max="1" width="34.1640625" style="1" customWidth="1"/>
     <col min="2" max="2" width="36" style="1" customWidth="1"/>
-    <col min="3" max="3" width="26.625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="26.6640625" style="1" customWidth="1"/>
     <col min="4" max="4" width="33" style="1" customWidth="1"/>
-    <col min="5" max="5" width="10.875" style="1"/>
+    <col min="5" max="5" width="10.83203125" style="1"/>
     <col min="6" max="6" width="19" style="1" customWidth="1"/>
-    <col min="7" max="7" width="10.875" style="1"/>
-    <col min="8" max="8" width="13.125" style="1" customWidth="1"/>
-    <col min="9" max="16384" width="10.875" style="1"/>
+    <col min="7" max="7" width="10.83203125" style="1"/>
+    <col min="8" max="8" width="13.1640625" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15.75">
+    <row r="1" spans="1:9">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2994,7 +2994,7 @@
         <v>1.87</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="15.75">
+    <row r="2" spans="1:9">
       <c r="A2" s="7">
         <v>3.34</v>
       </c>
@@ -3018,7 +3018,7 @@
       <c r="H2" s="5"/>
       <c r="I2" s="5"/>
     </row>
-    <row r="3" spans="1:9" ht="15.75">
+    <row r="3" spans="1:9">
       <c r="A3" s="7">
         <v>3.22</v>
       </c>
@@ -3038,7 +3038,7 @@
       <c r="H3" s="5"/>
       <c r="I3" s="5"/>
     </row>
-    <row r="4" spans="1:9" ht="15.75">
+    <row r="4" spans="1:9">
       <c r="A4" s="7">
         <v>3.18</v>
       </c>
@@ -3058,7 +3058,7 @@
       <c r="H4" s="5"/>
       <c r="I4" s="5"/>
     </row>
-    <row r="5" spans="1:9" ht="15.75">
+    <row r="5" spans="1:9">
       <c r="A5" s="7">
         <v>3.1</v>
       </c>
@@ -3078,7 +3078,7 @@
       <c r="H5" s="5"/>
       <c r="I5" s="5"/>
     </row>
-    <row r="6" spans="1:9" ht="15.75">
+    <row r="6" spans="1:9">
       <c r="A6" s="7">
         <v>3.06</v>
       </c>
@@ -3098,7 +3098,7 @@
       <c r="H6" s="5"/>
       <c r="I6" s="5"/>
     </row>
-    <row r="7" spans="1:9" ht="15.75">
+    <row r="7" spans="1:9">
       <c r="A7" s="7">
         <v>3.02</v>
       </c>
@@ -3118,7 +3118,7 @@
       <c r="H7" s="5"/>
       <c r="I7" s="5"/>
     </row>
-    <row r="8" spans="1:9" ht="15.75">
+    <row r="8" spans="1:9">
       <c r="A8" s="7">
         <v>2.89</v>
       </c>
@@ -3138,7 +3138,7 @@
       <c r="H8" s="5"/>
       <c r="I8" s="5"/>
     </row>
-    <row r="9" spans="1:9" ht="15.75">
+    <row r="9" spans="1:9">
       <c r="A9" s="7">
         <v>2.81</v>
       </c>
@@ -3158,7 +3158,7 @@
       <c r="H9" s="5"/>
       <c r="I9" s="5"/>
     </row>
-    <row r="10" spans="1:9" ht="15.75">
+    <row r="10" spans="1:9">
       <c r="A10" s="7">
         <v>2.77</v>
       </c>
@@ -3180,7 +3180,7 @@
       <c r="H10" s="5"/>
       <c r="I10" s="5"/>
     </row>
-    <row r="11" spans="1:9" ht="15.75">
+    <row r="11" spans="1:9">
       <c r="A11" s="7">
         <v>2.69</v>
       </c>
@@ -3200,7 +3200,7 @@
       <c r="H11" s="5"/>
       <c r="I11" s="5"/>
     </row>
-    <row r="12" spans="1:9" ht="15.75">
+    <row r="12" spans="1:9">
       <c r="A12" s="7">
         <v>2.61</v>
       </c>
@@ -3220,7 +3220,7 @@
       <c r="H12" s="5"/>
       <c r="I12" s="5"/>
     </row>
-    <row r="13" spans="1:9" ht="15.75">
+    <row r="13" spans="1:9">
       <c r="A13" s="7">
         <v>2.5299999999999998</v>
       </c>
@@ -3240,7 +3240,7 @@
       <c r="H13" s="5"/>
       <c r="I13" s="5"/>
     </row>
-    <row r="14" spans="1:9" ht="15.75">
+    <row r="14" spans="1:9">
       <c r="A14" s="7">
         <v>2.4500000000000002</v>
       </c>
@@ -3260,7 +3260,7 @@
       <c r="H14" s="5"/>
       <c r="I14" s="5"/>
     </row>
-    <row r="15" spans="1:9" ht="15.75">
+    <row r="15" spans="1:9">
       <c r="A15" s="7">
         <v>2.33</v>
       </c>
@@ -3280,7 +3280,7 @@
       <c r="H15" s="5"/>
       <c r="I15" s="5"/>
     </row>
-    <row r="16" spans="1:9" ht="15.75">
+    <row r="16" spans="1:9">
       <c r="A16" s="7">
         <v>2.25</v>
       </c>
@@ -3300,7 +3300,7 @@
       <c r="H16" s="5"/>
       <c r="I16" s="5"/>
     </row>
-    <row r="17" spans="1:9" ht="15.75">
+    <row r="17" spans="1:9">
       <c r="A17" s="7">
         <v>2.17</v>
       </c>
@@ -3320,7 +3320,7 @@
       <c r="H17" s="5"/>
       <c r="I17" s="5"/>
     </row>
-    <row r="18" spans="1:9" ht="15.75">
+    <row r="18" spans="1:9">
       <c r="A18" s="7">
         <v>2.09</v>
       </c>
@@ -3340,7 +3340,7 @@
       <c r="H18" s="5"/>
       <c r="I18" s="5"/>
     </row>
-    <row r="19" spans="1:9" ht="15.75">
+    <row r="19" spans="1:9">
       <c r="A19" s="7">
         <v>1.93</v>
       </c>
@@ -3360,7 +3360,7 @@
       <c r="H19" s="5"/>
       <c r="I19" s="5"/>
     </row>
-    <row r="20" spans="1:9" ht="15.75">
+    <row r="20" spans="1:9">
       <c r="A20" s="7">
         <v>1.89</v>
       </c>
@@ -3380,7 +3380,7 @@
       <c r="H20" s="5"/>
       <c r="I20" s="5"/>
     </row>
-    <row r="21" spans="1:9" ht="15.75">
+    <row r="21" spans="1:9">
       <c r="A21" s="7">
         <v>1.81</v>
       </c>
@@ -3400,7 +3400,7 @@
       <c r="H21" s="5"/>
       <c r="I21" s="5"/>
     </row>
-    <row r="22" spans="1:9" ht="15.75">
+    <row r="22" spans="1:9">
       <c r="A22" s="7">
         <v>1.65</v>
       </c>
@@ -3420,7 +3420,7 @@
       <c r="H22" s="5"/>
       <c r="I22" s="5"/>
     </row>
-    <row r="23" spans="1:9" ht="15.75">
+    <row r="23" spans="1:9">
       <c r="A23" s="7">
         <v>1.61</v>
       </c>
@@ -3440,7 +3440,7 @@
       <c r="H23" s="5"/>
       <c r="I23" s="5"/>
     </row>
-    <row r="24" spans="1:9" ht="15.75">
+    <row r="24" spans="1:9">
       <c r="A24" s="7">
         <v>1.29</v>
       </c>
@@ -3460,7 +3460,7 @@
       <c r="H24" s="5"/>
       <c r="I24" s="5"/>
     </row>
-    <row r="25" spans="1:9" ht="15.75">
+    <row r="25" spans="1:9">
       <c r="A25" s="7">
         <v>1.05</v>
       </c>
@@ -3480,7 +3480,7 @@
       <c r="H25" s="5"/>
       <c r="I25" s="5"/>
     </row>
-    <row r="26" spans="1:9" ht="15.75">
+    <row r="26" spans="1:9">
       <c r="A26" s="10">
         <v>0.72</v>
       </c>
@@ -3512,19 +3512,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5231FCD-BD75-4555-8AEA-45BDA52510D1}">
   <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="16.5" customWidth="1"/>
-    <col min="2" max="2" width="23.375" customWidth="1"/>
+    <col min="2" max="2" width="23.33203125" customWidth="1"/>
     <col min="3" max="3" width="16" customWidth="1"/>
-    <col min="4" max="4" width="17.125" customWidth="1"/>
+    <col min="4" max="4" width="17.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15.75">
+    <row r="1" spans="1:4">
       <c r="A1" s="13" t="s">
         <v>8</v>
       </c>
@@ -3538,7 +3538,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="15.75">
+    <row r="2" spans="1:4">
       <c r="A2" s="13">
         <v>17.63</v>
       </c>
@@ -3552,7 +3552,7 @@
         <v>1.2050000000000001</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="15.75">
+    <row r="3" spans="1:4">
       <c r="A3" s="13">
         <v>13.02</v>
       </c>
@@ -3567,6 +3567,7 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
